--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1113467.494719039</v>
+        <v>1151360.757050995</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16618375.1158991</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484442</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7032148.854924282</v>
+        <v>7061919.906426428</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -722,7 +722,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>238.1269503912397</v>
+        <v>42.36819274064413</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>20.99823919120489</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>127.3620898877119</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,25 +896,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>422.5714809221756</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>402.7869235239925</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>245.8531339690494</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>212.0537275072919</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>57.55526645594376</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>161.4258646586649</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1427,7 +1427,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>173.7950029088908</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>48.38806639660987</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>161.4887027346011</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.43430199953282</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>90.97964783089149</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1765,10 +1765,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1813,10 +1813,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>184.8333783299116</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>46.45303019605597</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>379.7050409934901</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>71.84692347866412</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2014,10 +2014,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H19" t="n">
-        <v>31.24391673888241</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>165.7499153537889</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800191</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>89.05336748755441</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2296,13 +2296,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>47.90525155920275</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2479,22 +2479,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>79.5854046174446</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>60.78001549303731</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>255.5560686765682</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2950,25 +2950,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>144.126610807635</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225762</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3199,7 +3199,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022785</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>50.3082548690714</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225762</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>35.2009270099862</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3749,7 +3749,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948835</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791322127</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,13 +3898,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>90.32734763589799</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>240.2737862279069</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791304972</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>32.67077719907237</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>133.3709995376068</v>
       </c>
       <c r="C46" t="n">
-        <v>50.38971918733576</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6066390714051</v>
+        <v>571.069719395519</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5045702952325</v>
+        <v>132.9272465789423</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6351895100811</v>
+        <v>101.0578657937909</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9008487087803</v>
+        <v>71.32352499249012</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>635.2656800381131</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>635.2656800381131</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1071.402940797433</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1071.402940797433</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1071.402940797433</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1659.172121393445</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2205.670907352039</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2374.824972105096</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2291.173098288933</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2071.105871161972</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1811.883568478989</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>1449.266618412815</v>
       </c>
       <c r="W2" t="n">
-        <v>709.6437982983157</v>
+        <v>1044.411163823848</v>
       </c>
       <c r="X2" t="n">
-        <v>469.1115251758513</v>
+        <v>1001.615009540369</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8658055159088</v>
+        <v>997.3692898804268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>553.6682444333948</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>447.211783270037</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>352.1214944165903</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>258.001079743544</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>174.6172413597056</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>89.23215162588946</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>73.56017260255953</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>398.1184975687718</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>985.8876781647831</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1052.824544194496</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1593.563482826571</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1710.736260920911</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1647.280823369294</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1517.102179699895</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1340.765632699864</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1141.648114761863</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>956.3253604950571</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>801.4579247339371</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.9721455131579</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227.7157227357621</v>
+        <v>897.9925365190331</v>
       </c>
       <c r="C4" t="n">
-        <v>55.15401121898702</v>
+        <v>725.4308250022581</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>559.5528322037808</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>389.7948284545181</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>213.0877744162743</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>47.49649944210192</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>287.6962768024544</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>705.9061585704155</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1165.390025751328</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1607.648828908973</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2027.318078134755</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2374.824972105096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2374.824972105096</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2374.824972105096</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2215.583603403093</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1969.704156981548</v>
       </c>
       <c r="U4" t="n">
-        <v>1259.509060631519</v>
+        <v>1691.271156234653</v>
       </c>
       <c r="V4" t="n">
-        <v>972.5535525019498</v>
+        <v>1691.271156234653</v>
       </c>
       <c r="W4" t="n">
-        <v>700.5271480882413</v>
+        <v>1562.6225805905</v>
       </c>
       <c r="X4" t="n">
-        <v>455.1353934216538</v>
+        <v>1317.230825923912</v>
       </c>
       <c r="Y4" t="n">
-        <v>227.7157227357621</v>
+        <v>1089.81115523802</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>2064.697426772026</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1354.309253581271</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>991.6923035150976</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>586.8368489261309</v>
+        <v>2106.304372256757</v>
       </c>
       <c r="X5" t="n">
-        <v>179.9813706190676</v>
+        <v>2091.202312876472</v>
       </c>
       <c r="Y5" t="n">
-        <v>175.7356509591251</v>
+        <v>2086.95659321653</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.3047513715259</v>
+        <v>2075.583230496374</v>
       </c>
       <c r="C8" t="n">
-        <v>122.2026825953532</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D8" t="n">
-        <v>90.33330181020182</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890105</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851284</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851284</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851284</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851284</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>473.4386690283529</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>473.4386690283529</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>473.4386690283529</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>928.4913703274493</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626546</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925642</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925642</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1579.374470242659</v>
+        <v>2118.005226529668</v>
       </c>
       <c r="V8" t="n">
-        <v>1216.757520176486</v>
+        <v>2118.005226529668</v>
       </c>
       <c r="W8" t="n">
-        <v>811.9020655875188</v>
+        <v>2117.190175981105</v>
       </c>
       <c r="X8" t="n">
-        <v>392.7596021668295</v>
+        <v>2102.08811660082</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.5639178160296</v>
+        <v>2097.842396940877</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230036</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897044</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842792</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543885</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543885</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543885</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543885</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1115.830096070394</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536191</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>777.3903917551418</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>607.6323880058791</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676353</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>265.334058993463</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838375</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851284</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851284</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>174.1091252727781</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.1618265718745</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729519</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.0898789553</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925642</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925642</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925642</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925642</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925642</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1838.596772925642</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1780.460140141861</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1535.068385475273</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1307.648714789381</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168566</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.51439535199</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526433</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E11" t="n">
         <v>1215.548181578287</v>
@@ -5045,46 +5045,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2492.071939528658</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.83610851071</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344106</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302701</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055758</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112633</v>
+        <v>4616.731606928796</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.85743042965</v>
+        <v>4357.509304245813</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363476</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.38502577451</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353821</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653474</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="12">
@@ -5121,10 +5121,10 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
         <v>1102.064021433509</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1084.662814845622</v>
+        <v>1052.109260520272</v>
       </c>
       <c r="C13" t="n">
-        <v>912.1011033288468</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D13" t="n">
-        <v>746.2231105303695</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E13" t="n">
-        <v>576.4651067811068</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F13" t="n">
-        <v>399.758052742863</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907407</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>185.3959259064398</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111516</v>
@@ -5227,22 +5227,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460366</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="U13" t="n">
-        <v>2308.274771460366</v>
+        <v>2275.721217135017</v>
       </c>
       <c r="V13" t="n">
-        <v>2021.319263330797</v>
+        <v>1988.765709005447</v>
       </c>
       <c r="W13" t="n">
-        <v>1749.292858917088</v>
+        <v>1716.739304591739</v>
       </c>
       <c r="X13" t="n">
-        <v>1503.901104250501</v>
+        <v>1471.347549925151</v>
       </c>
       <c r="Y13" t="n">
-        <v>1276.481433564609</v>
+        <v>1243.927879239259</v>
       </c>
     </row>
     <row r="14">
@@ -5261,19 +5261,19 @@
         <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578288</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874956</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G14" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5288,28 +5288,28 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4764.64297345017</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
         <v>4181.958796257035</v>
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1003.232425776222</v>
+        <v>1009.916144494519</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776222</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777443</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E16" t="n">
         <v>667.5964292284815</v>
@@ -5431,10 +5431,10 @@
         <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
-        <v>2691.977765289286</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2505.27738313786</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2226.844382390966</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V16" t="n">
-        <v>1939.888874261396</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W16" t="n">
-        <v>1667.862469847688</v>
+        <v>1674.546188565986</v>
       </c>
       <c r="X16" t="n">
-        <v>1422.470715181101</v>
+        <v>1429.154433899398</v>
       </c>
       <c r="Y16" t="n">
-        <v>1195.051044495209</v>
+        <v>1201.734763213506</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689264</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>2034.581622478953</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1598.671837653397</v>
       </c>
       <c r="E17" t="n">
         <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.2639626146351</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>498.7803825855964</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.40092234507</v>
+        <v>1573.840348838456</v>
       </c>
       <c r="M17" t="n">
-        <v>2481.810506693462</v>
+        <v>2730.888184049007</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693462</v>
+        <v>3856.619167485454</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263768</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097164</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="Q17" t="n">
         <v>4836.798834055759</v>
@@ -5540,25 +5540,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4764.22618407731</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4544.158956950349</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.158956950349</v>
+        <v>4493.924657556613</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.542006884175</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.686552295208</v>
+        <v>3726.452252901473</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874519</v>
+        <v>3307.309789480784</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174173</v>
+        <v>2899.023665780437</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987284</v>
+        <v>806.2298140987275</v>
       </c>
       <c r="C19" t="n">
-        <v>806.2298140987284</v>
+        <v>633.6681025819524</v>
       </c>
       <c r="D19" t="n">
-        <v>640.3518213002511</v>
+        <v>467.7901097834751</v>
       </c>
       <c r="E19" t="n">
-        <v>470.5938175509884</v>
+        <v>298.0321060342124</v>
       </c>
       <c r="F19" t="n">
-        <v>293.8867635127446</v>
+        <v>121.3250519959685</v>
       </c>
       <c r="G19" t="n">
-        <v>128.2954885385722</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5707,16 +5707,16 @@
         <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583903</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
         <v>1470.859858170194</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503607</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177151</v>
+        <v>998.0484328177147</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419993</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578288</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6807519874956</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107594</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2481.810506693462</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1093.185322228297</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C22" t="n">
-        <v>1003.232425776222</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>837.3544329777443</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>667.5964292284815</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>490.8893751902377</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>325.2981002160653</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460366</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713471</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.841770713471</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.815366299763</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X22" t="n">
-        <v>1512.423611633176</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y22" t="n">
-        <v>1285.003940947284</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883922</v>
+        <v>790.3368563937644</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716172</v>
+        <v>617.7751448769893</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731399</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238771</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F25" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755404</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127514</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6227,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1021.77365348828</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2178.821488698831</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135278</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705584</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2055.662191942386</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1768.706683812817</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1496.680279399108</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1251.288524732521</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1023.868854046629</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6625,10 +6625,10 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745666</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N31" t="n">
         <v>1783.551532113124</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937636</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769885</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>451.8971520785112</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292484</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910047</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127508</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>831.0115848906038</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>665.1335920921265</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>495.3755883428638</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>318.66853430462</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>153.0772593304477</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7099,7 +7099,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M37" t="n">
         <v>1341.292728955479</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477109</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,10 +7333,10 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066049</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7391,19 +7391,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771603</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004242</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436404</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7418,7 +7418,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423627</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477109</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309358</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324585</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831958</v>
+        <v>624.4588635952861</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>447.7518095570423</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>282.16053458287</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7585,34 +7585,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309249</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173581</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878953</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.502628878953</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2523.375184062123</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1649.322926419991</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1215.548181578286</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771594</v>
+        <v>787.6807519874942</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>386.2829206107581</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>97.15276605397426</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423627</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>4803.798049006191</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4803.798049006191</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4181.958796257034</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3357.960878247378</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.4325852620724</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I45" t="n">
-        <v>128.3245134312372</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.327823655249</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.500601749588</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S45" t="n">
-        <v>1702.045164197971</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T45" t="n">
-        <v>1571.866520528573</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V45" t="n">
-        <v>1196.412455590541</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W45" t="n">
-        <v>1011.089701323735</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X45" t="n">
-        <v>856.2222655626148</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.7364863418355</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>970.9960463903953</v>
+        <v>863.330251466596</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>863.330251466596</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>697.4522586681187</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>527.694254918856</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>350.9872008806122</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955479</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S46" t="n">
-        <v>2718.920450173579</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T46" t="n">
-        <v>2473.041003752035</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U46" t="n">
-        <v>2194.60800300514</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V46" t="n">
-        <v>1907.65249487557</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W46" t="n">
-        <v>1635.626090461862</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X46" t="n">
-        <v>1390.234335795274</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y46" t="n">
-        <v>1162.814665109383</v>
+        <v>998.048432817714</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026274</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>440.542687635677</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>593.706243026274</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>593.706243026274</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>67.61299598960852</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>242.6260377377298</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>441.0775086564041</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558235</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,16 +8693,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>808.8526959414667</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>406.105460509577</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>40.81776196807232</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,7 +9890,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>268.0111327346229</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>185.1957776566209</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>122.4480280049974</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.446659489829472</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>11.38105307846854</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>268.0111327346202</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>58.58727362741769</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>222.8531101735154</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>49.73195639979764</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.96843159933724</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H19" t="n">
-        <v>107.2592358276468</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>268.011132734622</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>81.7827269140529</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>195.0325855607189</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>84.63380825304793</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>114.159968004824</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>20.09260206285748</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>20.09260206285751</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.7958207444078</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>88.19489769745782</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627257</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>208.2197249473431</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>48.17580493063123</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>3.146865729422359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>50.14457787892899</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>56.52943299419047</v>
       </c>
       <c r="C46" t="n">
-        <v>120.4463752142715</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>600886.9552635938</v>
+        <v>607836.4088472991</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>600886.9552635938</v>
+        <v>610864.1569097277</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>602337.1990890878</v>
+        <v>610864.1569097277</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>595016.9983974703</v>
+        <v>595016.9983974705</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>595016.9983974703</v>
+        <v>620127.3956664938</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>620127.3956664938</v>
+        <v>595016.9983974705</v>
       </c>
     </row>
   </sheetData>
@@ -26320,25 +26320,25 @@
         <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>341228.6311308815</v>
+        <v>341228.6311308816</v>
       </c>
       <c r="F2" t="n">
-        <v>341228.6311308816</v>
+        <v>341228.6311308817</v>
       </c>
       <c r="G2" t="n">
         <v>341228.6311308815</v>
       </c>
       <c r="H2" t="n">
-        <v>341228.6311308815</v>
+        <v>355628.8692927129</v>
       </c>
       <c r="I2" t="n">
-        <v>355628.8692927127</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="J2" t="n">
         <v>355628.8692927127</v>
       </c>
       <c r="K2" t="n">
-        <v>355628.8692927127</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="L2" t="n">
         <v>355628.8692927127</v>
@@ -26347,13 +26347,13 @@
         <v>355628.8692927127</v>
       </c>
       <c r="N2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="O2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927129</v>
       </c>
       <c r="P2" t="n">
-        <v>355628.8692927129</v>
+        <v>341228.6311308816</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>198964.617281694</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23845.51249725102</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>18633.22400329715</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>155339.6762503664</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18996.06533906484</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510197</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>161874.5193913977</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511645</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>187055.8853966614</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
         <v>52352.49019908698</v>
       </c>
       <c r="F4" t="n">
-        <v>52352.49019908699</v>
+        <v>52352.490199087</v>
       </c>
       <c r="G4" t="n">
-        <v>52352.49019908701</v>
+        <v>52352.490199087</v>
       </c>
       <c r="H4" t="n">
-        <v>52352.49019908701</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962276</v>
@@ -26448,16 +26448,16 @@
         <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="O4" t="n">
-        <v>54561.82510962278</v>
+        <v>54561.8251096228</v>
       </c>
       <c r="P4" t="n">
-        <v>54561.82510962276</v>
+        <v>52352.49019908704</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69724.93957599746</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846976</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26509,7 @@
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>73519.34227764752</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33413.32752207102</v>
+        <v>-68664.63532306348</v>
       </c>
       <c r="C6" t="n">
-        <v>108777.9731376389</v>
+        <v>115831.2096212278</v>
       </c>
       <c r="D6" t="n">
-        <v>102287.4779088916</v>
+        <v>139676.7221184789</v>
       </c>
       <c r="E6" t="n">
-        <v>-8442.495097879844</v>
+        <v>53545.16488923597</v>
       </c>
       <c r="F6" t="n">
-        <v>215356.7986541471</v>
+        <v>215280.2400993503</v>
       </c>
       <c r="G6" t="n">
-        <v>215356.798654147</v>
+        <v>215280.2400993501</v>
       </c>
       <c r="H6" t="n">
-        <v>215356.798654147</v>
+        <v>204692.3572346178</v>
       </c>
       <c r="I6" t="n">
-        <v>204984.0899444579</v>
+        <v>223325.5812379148</v>
       </c>
       <c r="J6" t="n">
-        <v>112334.3402323073</v>
+        <v>67985.90498754836</v>
       </c>
       <c r="K6" t="n">
-        <v>223348.8055772975</v>
+        <v>204329.51589885</v>
       </c>
       <c r="L6" t="n">
-        <v>214401.1944887872</v>
+        <v>223325.5812379148</v>
       </c>
       <c r="M6" t="n">
-        <v>36557.81896683009</v>
+        <v>88335.63662491142</v>
       </c>
       <c r="N6" t="n">
-        <v>223348.8055772975</v>
+        <v>223325.5812379148</v>
       </c>
       <c r="O6" t="n">
-        <v>223348.8055772975</v>
+        <v>223325.5812379149</v>
       </c>
       <c r="P6" t="n">
-        <v>223348.8055772976</v>
+        <v>215280.2400993502</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026274</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.199708513939</v>
@@ -26805,7 +26805,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26829,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1209.19970851394</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026274</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>73.80896358158293</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026274</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>73.80896358158293</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026274</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>73.80896358158293</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>69.06079487080547</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>176.8240883952427</v>
+        <v>372.5828460458383</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>143.2209736792876</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27588,16 +27588,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>141.9440504818595</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,70 +27616,70 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>11.18956716623535</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>358.9907805655117</v>
+      </c>
+      <c r="W5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>397.3838530629687</v>
-      </c>
-      <c r="H5" t="n">
-        <v>286.2388530112159</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.4126214791313976</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>217.8665548556918</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>12.16411526248987</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27783,16 +27783,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>54.79268646174563</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>10.7769456871039</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>192.1495349560512</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>84.63380825304846</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>211.7508739136276</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>8.458833633540053e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30715,7 +30715,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>593.706243026274</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>440.542687635677</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>593.706243026274</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>593.706243026274</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>67.61299598960852</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>242.6260377377298</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>441.0775086564041</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>138.7244341558235</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>808.8526959414667</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697549</v>
+        <v>40.81776196807095</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35656,19 +35656,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>406.105460509577</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>40.81776196807232</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,16 +36121,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>40.81776196807232</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36595,10 +36595,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36610,7 +36610,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.434224008042</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37245,7 +37245,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37467,10 +37467,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -37701,13 +37701,13 @@
         <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37950,10 +37950,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165084</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38017,16 +38017,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
